--- a/fontes_db/fornecedores_pref/Eleições 2016 - Despesas Prefeito e Vice-Prefeito.xlsx
+++ b/fontes_db/fornecedores_pref/Eleições 2016 - Despesas Prefeito e Vice-Prefeito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornecedores_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornec_pref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA309684-BC2B-D041-BAB8-AB9B77C166C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF3651F-EA9D-6F46-8EFA-38D47869185A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{9118A5A8-7AFC-4E0A-AD8A-8D4355FA7D21}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="220">
   <si>
     <t>Cód. Eleição</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>CNPJ</t>
+  </si>
+  <si>
+    <t>DESPESAS BANCÁRIAS</t>
   </si>
 </sst>
 </file>
@@ -3063,7 +3066,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF9F65C9-82DC-4D49-BA19-23A453A70908}" name="Tabela dinâmica1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF9F65C9-82DC-4D49-BA19-23A453A70908}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:E38" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="27">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9791,10 +9794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF086582-B53B-4EC2-B6A9-26BFA153C9A4}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10317,10 +10320,15 @@
         <v>216</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="D37">
         <v>1.9719486337972409E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="D38">
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -10334,7 +10342,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/fontes_db/fornecedores_pref/Eleições 2016 - Despesas Prefeito e Vice-Prefeito.xlsx
+++ b/fontes_db/fornecedores_pref/Eleições 2016 - Despesas Prefeito e Vice-Prefeito.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornec_pref/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornecedores_pref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF3651F-EA9D-6F46-8EFA-38D47869185A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2182D7F5-8980-E644-AE3B-FFDB5BB436C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{9118A5A8-7AFC-4E0A-AD8A-8D4355FA7D21}"/>
   </bookViews>
@@ -9794,10 +9794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF086582-B53B-4EC2-B6A9-26BFA153C9A4}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10324,11 +10324,6 @@
       </c>
       <c r="D37">
         <v>1.9719486337972409E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="D38">
-        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
